--- a/xo-starter-excel/src/test/resources/META-INF/xo/excel/basic.xlsx
+++ b/xo-starter-excel/src/test/resources/META-INF/xo/excel/basic.xlsx
@@ -9,8 +9,67 @@
   <sheets>
     <sheet name="部门名称" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" calcOnSave="0"/>
+  <calcPr calcId="145621" calcOnSave="0"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>hesong</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:area(lastCell="F11")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:each(items="</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>department.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>employees" var="employee" lastCell="F8")</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -71,26 +130,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>${department.employees.name}</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>${department.employees.age}</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>${department.employees.birthDate}</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>${department.employees.payment}</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>${department.employees.bonus}</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>职员信息：</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -103,10 +142,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>$[D8*(1+E8)]//department.employees</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>$[SUM(D8)]</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -119,7 +154,31 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>${department.name}${workbook.setSheetName(0, department.name)}</t>
+    <t>${employee.name}</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>${employee.age}</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>${employee.birthDate}</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>${employee.payment}</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>${employee.bonus}</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[D8*(1+E8)]</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>${department.name}</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -131,7 +190,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -199,6 +258,21 @@
       <sz val="9"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -696,11 +770,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -734,7 +808,7 @@
     </row>
     <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -780,7 +854,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -794,7 +868,7 @@
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="32" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B6" s="29"/>
       <c r="C6" s="29"/>
@@ -826,22 +900,22 @@
     </row>
     <row r="8" spans="1:9" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G8"/>
       <c r="H8"/>
@@ -853,11 +927,11 @@
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
       <c r="D9" s="24" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="25" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
@@ -879,7 +953,7 @@
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
       <c r="F11" s="26" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G11" s="10"/>
     </row>
@@ -893,5 +967,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>